--- a/Exc2/Проверочный лист ИБ.xlsx
+++ b/Exc2/Проверочный лист ИБ.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iayz\Desktop\sprint - 7\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E35C3FF-6497-41E5-AC06-76E671AAB6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,275 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+  <si>
+    <t>Цели аудита:</t>
+  </si>
+  <si>
+    <t>Увеличение удовлетворенности килентов. Клиенты в ЛК иногда видят ФИО другого человека</t>
+  </si>
+  <si>
+    <t>Начать использовать технологии ML, AI. На данный момент проблема с управлением и хранением потоков данных</t>
+  </si>
+  <si>
+    <t>Снизить риски утечки данных. У конкурентов недавно была утечка, они понесли репутационный ущерб</t>
+  </si>
+  <si>
+    <t>Соответствие законам РФ</t>
+  </si>
+  <si>
+    <t>Проблемы:</t>
+  </si>
+  <si>
+    <t>Нет координации между точками регистрации нового клиента</t>
+  </si>
+  <si>
+    <t>Внутренние потоки между ИТ продуктами контролируются несистемно</t>
+  </si>
+  <si>
+    <t>Системы обработки данных имеют неограниченный доступ к данным</t>
+  </si>
+  <si>
+    <t>API партнеров используются без политик безопасности</t>
+  </si>
+  <si>
+    <t>API парнеров позволяют получать и менять данные безконтрольно</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Вопрос</t>
+  </si>
+  <si>
+    <t>Да/нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комментарий </t>
+  </si>
+  <si>
+    <t>I. Управление доступом</t>
+  </si>
+  <si>
+    <t>Используется ли многофакторная аутентификация (MFA) для доступа к критическим системам и сервисам?</t>
+  </si>
+  <si>
+    <t>Настроены ли требования к сложности паролей и их регулярное обновление?</t>
+  </si>
+  <si>
+    <t>Проводится ли аудит и пересмотр учётных записей с повышенными привилегиями на регулярной основе?</t>
+  </si>
+  <si>
+    <t>Реализован ли принцип минимальных привилегий при назначении ролей и прав доступа?</t>
+  </si>
+  <si>
+    <t>Автоматически ли удаляются или деактивируются учётные записи после увольнения или изменения должности сотрудников?</t>
+  </si>
+  <si>
+    <t>Ведётся ли журналирование всех операций доступа к системам и данным? Кто имеет доступ к журналам?</t>
+  </si>
+  <si>
+    <t>Используются ли системы аутентификации пользователей для доступа к системам?</t>
+  </si>
+  <si>
+    <t>Созданы ли замкнутые контуры для подсистем, работающих с чувствительными данными?</t>
+  </si>
+  <si>
+    <t>Ограничен ли доступ к системам из внешних источников?</t>
+  </si>
+  <si>
+    <t>Ведётся ли единый реестр учётных записей?</t>
+  </si>
+  <si>
+    <t>Используются ли средства управления учётными записями на базе единого реестра?</t>
+  </si>
+  <si>
+    <t>Применяются ли средства для отзыва прав доступа?</t>
+  </si>
+  <si>
+    <t>Используются ли средства централизованного контроля доступа?</t>
+  </si>
+  <si>
+    <t>II. Безопасность данных</t>
+  </si>
+  <si>
+    <t>Разработана ли политика классификации данных, и актуализируется ли она в соответствии с действующим законодательством?</t>
+  </si>
+  <si>
+    <t>Используется ли шифрование на уровне базы данных, файловой системы и при передаче данных по сети?</t>
+  </si>
+  <si>
+    <t>Реализованы ли механизмы управления ключами шифрования?</t>
+  </si>
+  <si>
+    <t>Проводится ли регулярное резервное копирование данных? Хранятся ли резервные копии в защищённых хранилищах?</t>
+  </si>
+  <si>
+    <t>Выполняется ли регулярное тестирование процесса восстановления данных из резервных копий?</t>
+  </si>
+  <si>
+    <t>Ограничен ли доступ к резервным копиям данных, и зашифрованы ли они?</t>
+  </si>
+  <si>
+    <t>Ведётся ли учёт персональных данных, и применяются ли специальные процедуры обработки и хранения для различных типов данных (общедоступные, конфиденциальные, критически важные)?</t>
+  </si>
+  <si>
+    <t>Осуществляется ли мониторинг доступа к данным на основе их классификации, и используются ли метки безопасности для маркировки данных?</t>
+  </si>
+  <si>
+    <t>Разработаны ли процессы и системы Data Governance для управления данными?</t>
+  </si>
+  <si>
+    <t>Реализованы ли системы или процессы безопасного уничтожения данных?</t>
+  </si>
+  <si>
+    <t>Используются ли системы или процессы контроля целостности данных?</t>
+  </si>
+  <si>
+    <t>Реализованы ли системы или процессы контроля сохранности данных?</t>
+  </si>
+  <si>
+    <t>Применяются ли средства или процессы анонимизации данных?</t>
+  </si>
+  <si>
+    <t>Разработана ли инструкция по процессу восстановления данных?</t>
+  </si>
+  <si>
+    <t>III. Защита инфраструктуры</t>
+  </si>
+  <si>
+    <t>Используется ли межсетевой экран для ограничения входящего и исходящего трафика?</t>
+  </si>
+  <si>
+    <t>Реализована ли сегментация сети на логические зоны (DMZ, корпоративная сеть, гостевая сеть) для ограничения доступа к критическим ресурсам?</t>
+  </si>
+  <si>
+    <t>Используются ли IDS/IPS-системы для обнаружения и предотвращения сетевых атак?</t>
+  </si>
+  <si>
+    <t>Настроен ли мониторинг сетевого трафика на предмет аномалий и возможных атак, например, DDoS?</t>
+  </si>
+  <si>
+    <t>Проводится ли регулярное сканирование уязвимостей операционных систем, приложений и сетевых устройств?</t>
+  </si>
+  <si>
+    <t>Используются ли средства для контроля периметра доступа?</t>
+  </si>
+  <si>
+    <t>IV.  Управление инцидентами</t>
+  </si>
+  <si>
+    <t>Используется ли система мониторинга безопасности (SIEM) для корреляции событий и анализа аномалий в режиме реального времени?</t>
+  </si>
+  <si>
+    <t>Настроены ли автоматические оповещения об инцидентах и подозрительной активности (например, попытках несанкционированного доступа)?</t>
+  </si>
+  <si>
+    <t>Разработан ли план реагирования на инциденты, включающий анализ, эскалацию и восстановление системы? Проводится ли обучение сотрудников по его использованию?</t>
+  </si>
+  <si>
+    <t>Проводятся ли симуляции инцидентов (учения) для проверки готовности сотрудников к реагированию на кибератаки?</t>
+  </si>
+  <si>
+    <t>Ведется ли статистика по всем зарегистрированным инцидентам и используются ли результаты анализа для корректировки политики безопасности?</t>
+  </si>
+  <si>
+    <t>V. Специфические аспекты</t>
+  </si>
+  <si>
+    <t>1. Общие вопросы</t>
+  </si>
+  <si>
+    <t>Проводится ли автоматическое выявление и ограничение использования незарегистрированных или неавторизованных устройств в корпоративной сети?</t>
+  </si>
+  <si>
+    <t>Настроены ли политики автоматического резервного копирования в облачной среде, и контролируется ли доступ к этим копиям?</t>
+  </si>
+  <si>
+    <t>2. Управление оборудованием и физической безопасностью</t>
+  </si>
+  <si>
+    <t>Используются ли системы контроля доступа — биометрия, СКУД — в серверных помещениях?</t>
+  </si>
+  <si>
+    <t>Ведётся ли инвентаризация всего оборудования и контроль его состояния с использованием систем управления активами?</t>
+  </si>
+  <si>
+    <t>Используются ли безопасные методы удаления данных перед утилизацией оборудования или передачей его в другие подразделения?</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Для клиентов есть CRM, а для сотрудников?</t>
+  </si>
+  <si>
+    <t>Где хранятся неизвестно</t>
+  </si>
+  <si>
+    <t>Доступ в систему для клиентов и собственников через межсетевой экран</t>
+  </si>
+  <si>
+    <t>финансы и дата в одной сети с клиентскими приложениями</t>
+  </si>
+  <si>
+    <t>нет на схеме элементов</t>
+  </si>
+  <si>
+    <t>от пользователей узнаем что видят чужие перс данные</t>
+  </si>
+  <si>
+    <t>Партнеры могут менять данные друг друга и мы не узнаем этого</t>
+  </si>
+  <si>
+    <t>это как раз нужно сделать</t>
+  </si>
+  <si>
+    <t>Политики безопасности нет</t>
+  </si>
+  <si>
+    <t>нет систем мониторинг</t>
+  </si>
+  <si>
+    <t>Данные по доступам нигде не сохраняются. Системы обработки имеют безконтрольный доступ к данным</t>
+  </si>
+  <si>
+    <t>Реализована ли система регистрации партнеров, авторизации и аутентификации, контроля доступа?</t>
+  </si>
+  <si>
+    <t>Партнеры могут менять и запрашивать данные чужих клиентов</t>
+  </si>
+  <si>
+    <t>К системам имеют доступ партнеры без ограничений</t>
+  </si>
+  <si>
+    <t>Т.к. одна из целей - соответствие законам, а мы не знаем соответствуем ли им</t>
+  </si>
+  <si>
+    <t>Собираются данны в CRM, но мы их не классифицируем</t>
+  </si>
+  <si>
+    <t>У нас нет классификации данных</t>
+  </si>
+  <si>
+    <t>Например работа с API партнеров без политик</t>
+  </si>
+  <si>
+    <t>API партнеров могут безконтрольно получать и менять данные друг друга</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,19 +300,141 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor theme="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,11 +443,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +775,722 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="7.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="101.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7">
+        <v>3</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>4</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4" ht="43.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="29">
+      <c r="A23" s="7">
+        <v>6</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" ht="58">
+      <c r="A24" s="7">
+        <v>7</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7">
+        <v>8</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" ht="29">
+      <c r="A26" s="7">
+        <v>9</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="29">
+      <c r="A27" s="7">
+        <v>10</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="29">
+      <c r="A28" s="7">
+        <v>11</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7">
+        <v>12</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7">
+        <v>13</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7">
+        <v>14</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" ht="43.5">
+      <c r="A33" s="7">
+        <v>1</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="7">
+        <v>2</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="7">
+        <v>3</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" ht="29">
+      <c r="A36" s="7">
+        <v>4</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7">
+        <v>5</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="7">
+        <v>6</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" ht="29">
+      <c r="A39" s="7">
+        <v>7</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="29">
+      <c r="A40" s="7">
+        <v>8</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="29">
+      <c r="A41" s="7">
+        <v>9</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="7">
+        <v>10</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" ht="29" customHeight="1">
+      <c r="A43" s="7">
+        <v>11</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="7">
+        <v>12</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="7">
+        <v>13</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="7">
+        <v>14</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:4" ht="43.5">
+      <c r="A48" s="7">
+        <v>1</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="29">
+      <c r="A49" s="7">
+        <v>2</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7">
+        <v>3</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="7">
+        <v>4</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7">
+        <v>5</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="7">
+        <v>6</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" ht="29">
+      <c r="A55" s="7">
+        <v>1</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="29">
+      <c r="A56" s="7">
+        <v>2</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="29">
+      <c r="A57" s="7">
+        <v>3</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="29">
+      <c r="A58" s="7">
+        <v>4</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="29">
+      <c r="A59" s="7">
+        <v>5</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="29">
+      <c r="A62" s="7">
+        <v>1</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="29">
+      <c r="A63" s="7">
+        <v>2</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="7">
+        <v>1</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:4" ht="29">
+      <c r="A66" s="7">
+        <v>2</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="1:4" ht="29">
+      <c r="A67" s="7">
+        <v>3</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:D61"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>